--- a/Dokumente/Nachweise_offiziell/2017_Juli.xlsx
+++ b/Dokumente/Nachweise_offiziell/2017_Juli.xlsx
@@ -32,6 +32,9 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Tabelle1!$A$1:$E$45</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Tabelle1!$A$1:$E$45</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Tabelle1!$A$1:$E$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Tabelle1!$A$1:$E$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Tabelle1!$A$1:$E$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">Tabelle1!$A$1:$E$45</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t xml:space="preserve">Arbeitsstundennachweis für studentische Hilfskräfte</t>
   </si>
@@ -72,13 +75,13 @@
     <t xml:space="preserve">Wochen-      tag</t>
   </si>
   <si>
-    <t xml:space="preserve">Arbeitszeit                     von - bis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pausen                        von - bis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tats. Arbeitszeit                  Std. Min.</t>
+    <t xml:space="preserve">Arbeitszeit                  von - bis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pausen                von - bis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tats. Arbeitszeit         Std. Min.</t>
   </si>
   <si>
     <t xml:space="preserve">Startzeit</t>
@@ -669,17 +672,17 @@
   </sheetPr>
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I29" activeCellId="0" sqref="I29"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.5708502024291"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5060728744939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7813765182186"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.8178137651822"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.1821862348178"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.0121457489879"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -790,7 +793,7 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
@@ -1285,20 +1288,20 @@
       </c>
       <c r="C26" s="18" t="str">
         <f aca="false">IF(G26 &gt; 0, TEXT(G26,"hh:mm")&amp;"-"&amp;TEXT(G26+(H26/24),"hh:mm"), 0)</f>
-        <v>23:30-00:00</v>
+        <v>20:30-00:00</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="19" t="n">
         <f aca="false">H26/24</f>
-        <v>0.0208333333333333</v>
+        <v>0.145833333333333</v>
       </c>
       <c r="G26" s="20" t="n">
-        <v>0.979166666666667</v>
+        <v>0.854166666666667</v>
       </c>
       <c r="H26" s="21" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="I26" s="22" t="n">
         <v>24</v>
@@ -1317,20 +1320,20 @@
       </c>
       <c r="C27" s="18" t="str">
         <f aca="false">IF(G27 &gt; 0, TEXT(G27,"hh:mm")&amp;"-"&amp;TEXT(G27+(H27/24),"hh:mm"), 0)</f>
-        <v>19:15-19:45</v>
+        <v>19:15-22:45</v>
       </c>
       <c r="D27" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="19" t="n">
         <f aca="false">H27/24</f>
-        <v>0.0208333333333333</v>
+        <v>0.145833333333333</v>
       </c>
       <c r="G27" s="20" t="n">
         <v>0.802083333333333</v>
       </c>
       <c r="H27" s="21" t="n">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="I27" s="22" t="n">
         <v>26</v>
@@ -1347,19 +1350,23 @@
         <f aca="false">A28</f>
         <v>41482</v>
       </c>
-      <c r="C28" s="18" t="n">
+      <c r="C28" s="18" t="str">
         <f aca="false">IF(G28 &gt; 0, TEXT(G28,"hh:mm")&amp;"-"&amp;TEXT(G28+(H28/24),"hh:mm"), 0)</f>
-        <v>0</v>
+        <v>14:00-20:00</v>
       </c>
       <c r="D28" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E28" s="19" t="n">
         <f aca="false">H28/24</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="20"/>
-      <c r="H28" s="21"/>
+        <v>0.25</v>
+      </c>
+      <c r="G28" s="20" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="H28" s="21" t="n">
+        <v>6</v>
+      </c>
       <c r="I28" s="22" t="n">
         <v>28</v>
       </c>
@@ -1369,75 +1376,73 @@
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="16" t="n">
         <f aca="false">IF(I29 &gt; 0, DATE($K$12, $J$12, I29), 0)</f>
-        <v>0</v>
+        <v>41484</v>
       </c>
       <c r="B29" s="17" t="n">
         <f aca="false">A29</f>
-        <v>0</v>
-      </c>
-      <c r="C29" s="18" t="n">
+        <v>41484</v>
+      </c>
+      <c r="C29" s="18" t="str">
         <f aca="false">IF(G29 &gt; 0, TEXT(G29,"hh:mm")&amp;"-"&amp;TEXT(G29+(H29/24),"hh:mm"), 0)</f>
-        <v>0</v>
+        <v>17:00-23:30</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E29" s="19" t="n">
         <f aca="false">H29/24</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="20"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="22"/>
+        <v>0.270833333333333</v>
+      </c>
+      <c r="G29" s="20" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="H29" s="21" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I29" s="22" t="n">
+        <v>30</v>
+      </c>
       <c r="J29" s="24"/>
       <c r="K29" s="24"/>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="16" t="n">
-        <f aca="false">IF(I28 &gt; 0, DATE($K$12, $J$12, I28), 0)</f>
-        <v>0</v>
+        <f aca="false">IF(I30 &gt; 0, DATE($K$12, $J$12, I30), 0)</f>
+        <v>41485</v>
       </c>
       <c r="B30" s="17" t="n">
         <f aca="false">A30</f>
-        <v>0</v>
-      </c>
-      <c r="C30" s="18" t="n">
+        <v>41485</v>
+      </c>
+      <c r="C30" s="18" t="str">
         <f aca="false">IF(G30 &gt; 0, TEXT(G30,"hh:mm")&amp;"-"&amp;TEXT(G30+(H30/24),"hh:mm"), 0)</f>
-        <v>0</v>
+        <v>11:00-17:00</v>
       </c>
       <c r="D30" s="18" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="19" t="n">
         <f aca="false">H30/24</f>
-        <v>0</v>
-      </c>
-      <c r="G30" s="20"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="22"/>
+        <v>0.25</v>
+      </c>
+      <c r="G30" s="20" t="n">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="H30" s="21" t="n">
+        <v>6</v>
+      </c>
+      <c r="I30" s="22" t="n">
+        <v>31</v>
+      </c>
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="16" t="n">
-        <f aca="false">IF(I29 &gt; 0, DATE($K$12, $J$12, I29), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="B31" s="17" t="n">
-        <f aca="false">A31</f>
-        <v>0</v>
-      </c>
-      <c r="C31" s="18" t="n">
-        <f aca="false">IF(G31 &gt; 0, TEXT(G31,"hh:mm")&amp;"-"&amp;TEXT(G31+(H31/24),"hh:mm"), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="19" t="n">
-        <f aca="false">H31/24</f>
-        <v>0</v>
-      </c>
+      <c r="A31" s="16"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="19"/>
       <c r="G31" s="20"/>
       <c r="H31" s="21"/>
       <c r="I31" s="22"/>
@@ -1445,25 +1450,11 @@
       <c r="K31" s="24"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="16" t="n">
-        <f aca="false">IF(I30 &gt; 0, DATE($K$12, $J$12, I30), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="B32" s="17" t="n">
-        <f aca="false">A32</f>
-        <v>0</v>
-      </c>
-      <c r="C32" s="18" t="n">
-        <f aca="false">IF(G32 &gt; 0, TEXT(G32,"hh:mm")&amp;"-"&amp;TEXT(G32+(H32/24),"hh:mm"), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E32" s="19" t="n">
-        <f aca="false">H32/24</f>
-        <v>0</v>
-      </c>
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="19"/>
       <c r="G32" s="20"/>
       <c r="H32" s="21"/>
       <c r="I32" s="22"/>
@@ -1471,25 +1462,11 @@
       <c r="K32" s="24"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="16" t="n">
-        <f aca="false">IF(I31 &gt; 0, DATE($K$12, $J$12, I31), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="B33" s="17" t="n">
-        <f aca="false">A33</f>
-        <v>0</v>
-      </c>
-      <c r="C33" s="18" t="n">
-        <f aca="false">IF(G33 &gt; 0, TEXT(G33,"hh:mm")&amp;"-"&amp;TEXT(G33+(H33/24),"hh:mm"), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" s="19" t="n">
-        <f aca="false">H33/24</f>
-        <v>0</v>
-      </c>
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="19"/>
       <c r="G33" s="20"/>
       <c r="H33" s="21"/>
       <c r="I33" s="22"/>
@@ -1497,25 +1474,11 @@
       <c r="K33" s="24"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="16" t="n">
-        <f aca="false">IF(I32 &gt; 0, DATE($K$12, $J$12, I32), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="B34" s="17" t="n">
-        <f aca="false">A34</f>
-        <v>0</v>
-      </c>
-      <c r="C34" s="18" t="n">
-        <f aca="false">IF(G34 &gt; 0, TEXT(G34,"hh:mm")&amp;"-"&amp;TEXT(G34+(H34/24),"hh:mm"), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="19" t="n">
-        <f aca="false">H34/24</f>
-        <v>0</v>
-      </c>
+      <c r="A34" s="16"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="19"/>
       <c r="G34" s="20"/>
       <c r="H34" s="21"/>
       <c r="I34" s="22"/>
@@ -1523,25 +1486,11 @@
       <c r="K34" s="24"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="16" t="n">
-        <f aca="false">IF(I33 &gt; 0, DATE($K$12, $J$12, I33), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="B35" s="17" t="n">
-        <f aca="false">A35</f>
-        <v>0</v>
-      </c>
-      <c r="C35" s="18" t="n">
-        <f aca="false">IF(G35 &gt; 0, TEXT(G35,"hh:mm")&amp;"-"&amp;TEXT(G35+(H35/24),"hh:mm"), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="19" t="n">
-        <f aca="false">H35/24</f>
-        <v>0</v>
-      </c>
+      <c r="A35" s="16"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="19"/>
       <c r="G35" s="20"/>
       <c r="H35" s="21"/>
       <c r="I35" s="22"/>
@@ -1549,25 +1498,11 @@
       <c r="K35" s="24"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="16" t="n">
-        <f aca="false">IF(I34 &gt; 0, DATE($K$12, $J$12, I34), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="B36" s="17" t="n">
-        <f aca="false">A36</f>
-        <v>0</v>
-      </c>
-      <c r="C36" s="18" t="n">
-        <f aca="false">IF(G36 &gt; 0, TEXT(G36,"hh:mm")&amp;"-"&amp;TEXT(G36+(H36/24),"hh:mm"), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E36" s="19" t="n">
-        <f aca="false">H36/24</f>
-        <v>0</v>
-      </c>
+      <c r="A36" s="16"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="19"/>
       <c r="G36" s="20"/>
       <c r="H36" s="21"/>
       <c r="I36" s="22"/>
@@ -1575,25 +1510,11 @@
       <c r="K36" s="24"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="16" t="n">
-        <f aca="false">IF(I35 &gt; 0, DATE($K$12, $J$12, I35), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="B37" s="17" t="n">
-        <f aca="false">A37</f>
-        <v>0</v>
-      </c>
-      <c r="C37" s="18" t="n">
-        <f aca="false">IF(G37 &gt; 0, TEXT(G37,"hh:mm")&amp;"-"&amp;TEXT(G37+(H37/24),"hh:mm"), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E37" s="19" t="n">
-        <f aca="false">H37/24</f>
-        <v>0</v>
-      </c>
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="19"/>
       <c r="G37" s="20"/>
       <c r="H37" s="21"/>
       <c r="I37" s="22"/>
@@ -1601,25 +1522,11 @@
       <c r="K37" s="24"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="16" t="n">
-        <f aca="false">IF(I36 &gt; 0, DATE($K$12, $J$12, I36), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="B38" s="17" t="n">
-        <f aca="false">A38</f>
-        <v>0</v>
-      </c>
-      <c r="C38" s="18" t="n">
-        <f aca="false">IF(G38 &gt; 0, TEXT(G38,"hh:mm")&amp;"-"&amp;TEXT(G38+(H38/24),"hh:mm"), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" s="19" t="n">
-        <f aca="false">H38/24</f>
-        <v>0</v>
-      </c>
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="19"/>
       <c r="G38" s="20"/>
       <c r="H38" s="21"/>
       <c r="I38" s="22"/>
@@ -1627,25 +1534,11 @@
       <c r="K38" s="24"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="16" t="n">
-        <f aca="false">IF(I37 &gt; 0, DATE($K$12, $J$12, I37), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="B39" s="17" t="n">
-        <f aca="false">A39</f>
-        <v>0</v>
-      </c>
-      <c r="C39" s="18" t="n">
-        <f aca="false">IF(G39 &gt; 0, TEXT(G39,"hh:mm")&amp;"-"&amp;TEXT(G39+(H39/24),"hh:mm"), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="19" t="n">
-        <f aca="false">H39/24</f>
-        <v>0</v>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="19"/>
       <c r="G39" s="20"/>
       <c r="H39" s="21"/>
       <c r="I39" s="22"/>
@@ -1653,25 +1546,11 @@
       <c r="K39" s="24"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="16" t="n">
-        <f aca="false">IF(I38 &gt; 0, DATE($K$12, $J$12, I38), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="B40" s="17" t="n">
-        <f aca="false">A40</f>
-        <v>0</v>
-      </c>
-      <c r="C40" s="18" t="n">
-        <f aca="false">IF(G40 &gt; 0, TEXT(G40,"hh:mm")&amp;"-"&amp;TEXT(G40+(H40/24),"hh:mm"), 0)</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" s="26" t="n">
-        <f aca="false">H40/24</f>
-        <v>0</v>
-      </c>
+      <c r="A40" s="16"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="26"/>
       <c r="G40" s="20"/>
       <c r="H40" s="21"/>
       <c r="I40" s="22"/>
@@ -1687,7 +1566,7 @@
       <c r="D41" s="27"/>
       <c r="E41" s="28" t="n">
         <f aca="false">SUM(H12:H40)/24</f>
-        <v>0.416666666666667</v>
+        <v>1.4375</v>
       </c>
       <c r="G41" s="30"/>
     </row>
